--- a/12 jan/day1.xlsx
+++ b/12 jan/day1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\ExcelInClass\12 jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980C9D0-CBEC-4B9D-99EB-64023B01603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6F6A1-97EB-42B9-B9E7-F63FD3222A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B5AB38AC-8403-4432-948D-E007D03195B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{B5AB38AC-8403-4432-948D-E007D03195B0}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="C" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B!$G$13:$G$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">A!$J$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Reg.no</t>
   </si>
@@ -144,12 +145,18 @@
   </si>
   <si>
     <t>Mult</t>
+  </si>
+  <si>
+    <t>jio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mmm/yyyy"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B0F959-A60D-4B68-A3BC-AACC4418BEEF}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,9 +722,10 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +747,11 @@
       <c r="G1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>12217878</v>
       </c>
@@ -762,8 +774,14 @@
         <f>PRODUCT(E2:F2)</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3">
         <v>12217879</v>
       </c>
@@ -786,8 +804,11 @@
         <f>PRODUCT(E3:F3)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12217880</v>
       </c>
@@ -810,8 +831,11 @@
         <f t="shared" ref="G4:G12" si="0">PRODUCT(E4:F4)</f>
         <v>145.80000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>12217881</v>
       </c>
@@ -834,8 +858,11 @@
         <f>PRODUCT(E5:F5)</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12217882</v>
       </c>
@@ -858,8 +885,11 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12217883</v>
       </c>
@@ -882,8 +912,11 @@
         <f t="shared" si="0"/>
         <v>140.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="22" x14ac:dyDescent="0.5">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>12217883</v>
       </c>
@@ -906,8 +939,11 @@
         <f t="shared" si="0"/>
         <v>165.29999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12217884</v>
       </c>
@@ -930,8 +966,11 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>12217885</v>
       </c>
@@ -954,8 +993,11 @@
         <f t="shared" si="0"/>
         <v>186.20000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12217886</v>
       </c>
@@ -978,8 +1020,11 @@
         <f t="shared" si="0"/>
         <v>98.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12217887</v>
       </c>
@@ -1002,8 +1047,11 @@
         <f t="shared" si="0"/>
         <v>163.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E13">
         <f>AVERAGE(E2:E12)</f>
         <v>8.127272727272727</v>
@@ -1013,7 +1061,7 @@
         <v>157.93636363636364</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14">
         <f>SUM(E2:E12)</f>
         <v>89.399999999999991</v>
@@ -1031,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC7B1DB-3296-40EC-85DF-CABE3BC7F16E}">
   <dimension ref="J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
